--- a/university_major.xlsx
+++ b/university_major.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="328">
   <si>
     <t>기준년도</t>
   </si>
@@ -1014,6 +1014,10 @@
     <t>2학기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>화신사이버대학교 _본교11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1482,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="F310" sqref="F310"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="F528" sqref="F528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -57785,7 +57789,7 @@
         <v>29</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G528" s="2" t="s">
         <v>32</v>
